--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.0696579639004</v>
+        <v>204.0567381322322</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.0684148659385</v>
+        <v>279.1994314603238</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.2106573770471</v>
+        <v>252.5530295806956</v>
       </c>
       <c r="AD2" t="n">
-        <v>152069.6579639004</v>
+        <v>204056.7381322322</v>
       </c>
       <c r="AE2" t="n">
-        <v>208068.4148659385</v>
+        <v>279199.4314603238</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.300725800056264e-06</v>
+        <v>3.889491118269046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.810763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>188210.6573770471</v>
+        <v>252553.0295806956</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.4843117460505</v>
+        <v>154.7278538683436</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.9566830742245</v>
+        <v>211.7054757737226</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.8316943738614</v>
+        <v>191.5006022964404</v>
       </c>
       <c r="AD3" t="n">
-        <v>123484.3117460505</v>
+        <v>154727.8538683436</v>
       </c>
       <c r="AE3" t="n">
-        <v>168956.6830742245</v>
+        <v>211705.4757737226</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.82289868449197e-06</v>
+        <v>4.772250287642442e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.178819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>152831.6943738614</v>
+        <v>191500.6022964404</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.8579404310656</v>
+        <v>148.4305363948167</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.2077483373393</v>
+        <v>203.089208188408</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.2538860399268</v>
+        <v>183.7066591964579</v>
       </c>
       <c r="AD4" t="n">
-        <v>106857.9404310656</v>
+        <v>148430.5363948167</v>
       </c>
       <c r="AE4" t="n">
-        <v>146207.7483373393</v>
+        <v>203089.2081884079</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.018290451315594e-06</v>
+        <v>5.102569764054971e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.710069444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>132253.8860399268</v>
+        <v>183706.6591964579</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.9045212382848</v>
+        <v>146.4771172020359</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.5349940190054</v>
+        <v>200.416453870074</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.8362156424996</v>
+        <v>181.2889887990307</v>
       </c>
       <c r="AD5" t="n">
-        <v>104904.5212382848</v>
+        <v>146477.1172020359</v>
       </c>
       <c r="AE5" t="n">
-        <v>143534.9940190054</v>
+        <v>200416.453870074</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.059511555151518e-06</v>
+        <v>5.172256085324178e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.623263888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>129836.2156424997</v>
+        <v>181288.9887990307</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.0469089155084</v>
+        <v>165.4091802909483</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.0946974583975</v>
+        <v>226.3201378119874</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.7656596659317</v>
+        <v>204.7204615015849</v>
       </c>
       <c r="AD2" t="n">
-        <v>125046.9089155083</v>
+        <v>165409.1802909483</v>
       </c>
       <c r="AE2" t="n">
-        <v>171094.6974583975</v>
+        <v>226320.1378119874</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.656787127098317e-06</v>
+        <v>4.60100005550571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>154765.6596659317</v>
+        <v>204720.4615015849</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.9744141441809</v>
+        <v>142.2513446650493</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.5258922256527</v>
+        <v>194.6345654570449</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.2097368974936</v>
+        <v>176.0589157012079</v>
       </c>
       <c r="AD3" t="n">
-        <v>101974.4141441809</v>
+        <v>142251.3446650493</v>
       </c>
       <c r="AE3" t="n">
-        <v>139525.8922256527</v>
+        <v>194634.5654570449</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.129140253396143e-06</v>
+        <v>5.419016951984812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>126209.7368974936</v>
+        <v>176058.9157012079</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.2055461052705</v>
+        <v>129.3919982908299</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.7374048209807</v>
+        <v>177.0398404335238</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.7828174135468</v>
+        <v>160.1434065395744</v>
       </c>
       <c r="AD4" t="n">
-        <v>99205.54610527051</v>
+        <v>129391.9982908299</v>
       </c>
       <c r="AE4" t="n">
-        <v>135737.4048209807</v>
+        <v>177039.8404335238</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.235336401512789e-06</v>
+        <v>5.602926486322563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.475694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>122782.8174135468</v>
+        <v>160143.4065395744</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.2654402714727</v>
+        <v>112.5262857635979</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.6639370251228</v>
+        <v>153.9634284910531</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.5296946143393</v>
+        <v>139.2693749649382</v>
       </c>
       <c r="AD2" t="n">
-        <v>85265.4402714727</v>
+        <v>112526.2857635979</v>
       </c>
       <c r="AE2" t="n">
-        <v>116663.9370251228</v>
+        <v>153963.4284910531</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.622719982085635e-06</v>
+        <v>6.85496577820296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>105529.6946143393</v>
+        <v>139269.3749649381</v>
       </c>
     </row>
   </sheetData>
@@ -3448,28 +3448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.35763966350834</v>
+        <v>131.258821924826</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.7360412359416</v>
+        <v>179.5941108880022</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.5450927390769</v>
+        <v>162.4539010068193</v>
       </c>
       <c r="AD2" t="n">
-        <v>93357.63966350834</v>
+        <v>131258.821924826</v>
       </c>
       <c r="AE2" t="n">
-        <v>127736.0412359416</v>
+        <v>179594.1108880022</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.341447406798156e-06</v>
+        <v>6.087391497080542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>115545.0927390769</v>
+        <v>162453.9010068193</v>
       </c>
     </row>
     <row r="3">
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.39563533566235</v>
+        <v>118.8002763265588</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.6832962401763</v>
+        <v>162.5477791682208</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.8791360376429</v>
+        <v>147.0344472616915</v>
       </c>
       <c r="AD3" t="n">
-        <v>90395.63533566234</v>
+        <v>118800.2763265588</v>
       </c>
       <c r="AE3" t="n">
-        <v>123683.2962401763</v>
+        <v>162547.7791682208</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.49682759817204e-06</v>
+        <v>6.370460461104868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.397569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>111879.1360376429</v>
+        <v>147034.4472616915</v>
       </c>
     </row>
   </sheetData>
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.50531946422393</v>
+        <v>116.6305784779211</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.5191738518252</v>
+        <v>159.5791028514028</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.8759404175791</v>
+        <v>144.3490972459863</v>
       </c>
       <c r="AD2" t="n">
-        <v>81505.31946422393</v>
+        <v>116630.5784779211</v>
       </c>
       <c r="AE2" t="n">
-        <v>111519.1738518252</v>
+        <v>159579.1028514027</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.67384765625303e-06</v>
+        <v>7.199557690822949e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100875.9404175791</v>
+        <v>144349.0972459863</v>
       </c>
     </row>
   </sheetData>
@@ -4148,28 +4148,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.0128395725561</v>
+        <v>179.6304141865993</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.2034999167367</v>
+        <v>245.7782574245673</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.0507448370258</v>
+        <v>222.3215254879887</v>
       </c>
       <c r="AD2" t="n">
-        <v>139012.8395725561</v>
+        <v>179630.4141865993</v>
       </c>
       <c r="AE2" t="n">
-        <v>190203.4999167367</v>
+        <v>245778.2574245673</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.567617635391869e-06</v>
+        <v>4.417537889196328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>172050.7448370258</v>
+        <v>222321.5254879887</v>
       </c>
     </row>
     <row r="3">
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.7282441447955</v>
+        <v>145.3457292502877</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.2938039228969</v>
+        <v>198.8684389611792</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.6180443906513</v>
+        <v>179.8887142603877</v>
       </c>
       <c r="AD3" t="n">
-        <v>104728.2441447955</v>
+        <v>145345.7292502877</v>
       </c>
       <c r="AE3" t="n">
-        <v>143293.8039228969</v>
+        <v>198868.4389611791</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.053746604561999e-06</v>
+        <v>5.253913644972462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.805555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>129618.0443906513</v>
+        <v>179888.7142603877</v>
       </c>
     </row>
     <row r="4">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.4710700592164</v>
+        <v>130.9129381832437</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.468950525745</v>
+        <v>179.1208574934556</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.3491068264886</v>
+        <v>162.0258142520328</v>
       </c>
       <c r="AD4" t="n">
-        <v>100471.0700592164</v>
+        <v>130912.9381832436</v>
       </c>
       <c r="AE4" t="n">
-        <v>137468.950525745</v>
+        <v>179120.8574934556</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.200099780808345e-06</v>
+        <v>5.505711534331399e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.493055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>124349.1068264886</v>
+        <v>162025.8142520328</v>
       </c>
     </row>
     <row r="5">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.6234289434096</v>
+        <v>131.0652970674369</v>
       </c>
       <c r="AB5" t="n">
-        <v>137.6774146726977</v>
+        <v>179.3293216404084</v>
       </c>
       <c r="AC5" t="n">
-        <v>124.5376754478375</v>
+        <v>162.2143828733817</v>
       </c>
       <c r="AD5" t="n">
-        <v>100623.4289434096</v>
+        <v>131065.2970674369</v>
       </c>
       <c r="AE5" t="n">
-        <v>137677.4146726977</v>
+        <v>179329.3216404084</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.198783655122677e-06</v>
+        <v>5.503447164822777e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.493055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>124537.6754478375</v>
+        <v>162214.3828733817</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.67199538993003</v>
+        <v>114.0565564670431</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.0107389728276</v>
+        <v>156.0572123782845</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.6069070428218</v>
+        <v>141.163331056617</v>
       </c>
       <c r="AD2" t="n">
-        <v>79671.99538993003</v>
+        <v>114056.5564670431</v>
       </c>
       <c r="AE2" t="n">
-        <v>109010.7389728276</v>
+        <v>156057.2123782845</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.631565835124138e-06</v>
+        <v>7.280056134709914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.848958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>98606.9070428218</v>
+        <v>141163.331056617</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.9114048609816</v>
+        <v>152.9978196376487</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.8586095472345</v>
+        <v>209.3383666155636</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.9836826010215</v>
+        <v>189.3594067140768</v>
       </c>
       <c r="AD2" t="n">
-        <v>113911.4048609817</v>
+        <v>152997.8196376487</v>
       </c>
       <c r="AE2" t="n">
-        <v>155858.6095472345</v>
+        <v>209338.3666155636</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.966518152960193e-06</v>
+        <v>5.253924081659862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.282986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>140983.6826010215</v>
+        <v>189359.4067140768</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.75962492691761</v>
+        <v>124.1171288138415</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.6542993245618</v>
+        <v>169.8225313042944</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.280274968012</v>
+        <v>153.6149072640794</v>
       </c>
       <c r="AD3" t="n">
-        <v>94759.6249269176</v>
+        <v>124117.1288138415</v>
       </c>
       <c r="AE3" t="n">
-        <v>129654.2993245618</v>
+        <v>169822.5313042944</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.372433150181774e-06</v>
+        <v>5.972829704024336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>117280.274968012</v>
+        <v>153614.9072640794</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.91653597956611</v>
+        <v>124.27403986649</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.8689919492224</v>
+        <v>170.0372239289551</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.4744776298981</v>
+        <v>153.8091099259655</v>
       </c>
       <c r="AD4" t="n">
-        <v>94916.53597956611</v>
+        <v>124274.03986649</v>
       </c>
       <c r="AE4" t="n">
-        <v>129868.9919492224</v>
+        <v>170037.2239289551</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.37193558337959e-06</v>
+        <v>5.971948476245021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>117474.4776298981</v>
+        <v>153809.1099259655</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.381838907441</v>
+        <v>161.3906056827431</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.0799869818852</v>
+        <v>220.8217467460443</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.2295461191057</v>
+        <v>199.7468291619332</v>
       </c>
       <c r="AD2" t="n">
-        <v>121381.838907441</v>
+        <v>161390.605682743</v>
       </c>
       <c r="AE2" t="n">
-        <v>166079.9869818852</v>
+        <v>220821.7467460443</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.749665263990666e-06</v>
+        <v>4.795176121816619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.690972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>150229.5461191057</v>
+        <v>199746.8291619332</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.06527874224099</v>
+        <v>129.1571946782892</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.5454848267244</v>
+        <v>176.7185717720414</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.6092139941809</v>
+        <v>159.8527993082403</v>
       </c>
       <c r="AD3" t="n">
-        <v>99065.27874224099</v>
+        <v>129157.1946782891</v>
       </c>
       <c r="AE3" t="n">
-        <v>135545.4848267245</v>
+        <v>176718.5717720414</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.230136989197619e-06</v>
+        <v>5.633076856168783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.553819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>122609.2139941809</v>
+        <v>159852.7993082403</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.96640814498805</v>
+        <v>127.887731880444</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.0419615968144</v>
+        <v>174.9816367672845</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.2491849111249</v>
+        <v>158.2816349425333</v>
       </c>
       <c r="AD4" t="n">
-        <v>97966.40814498805</v>
+        <v>127887.731880444</v>
       </c>
       <c r="AE4" t="n">
-        <v>134041.9615968144</v>
+        <v>174981.6367672845</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.272039018299682e-06</v>
+        <v>5.706150336070939e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.467013888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>121249.1849111249</v>
+        <v>158281.6349425333</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.5440971166825</v>
+        <v>188.979139266651</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.8763428611244</v>
+        <v>258.5695955157298</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.6095480337428</v>
+        <v>233.8920762244905</v>
       </c>
       <c r="AD2" t="n">
-        <v>147544.0971166825</v>
+        <v>188979.139266651</v>
       </c>
       <c r="AE2" t="n">
-        <v>201876.3428611244</v>
+        <v>258569.5955157298</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.385067152452197e-06</v>
+        <v>4.054456085554761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.559027777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>182609.5480337428</v>
+        <v>233892.0762244905</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.7097395263339</v>
+        <v>151.7221050064326</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.1603909577228</v>
+        <v>207.5928775765771</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.397715048828</v>
+        <v>187.7805046991613</v>
       </c>
       <c r="AD3" t="n">
-        <v>120709.7395263339</v>
+        <v>151722.1050064326</v>
       </c>
       <c r="AE3" t="n">
-        <v>165160.3909577228</v>
+        <v>207592.8775765771</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.89369764541085e-06</v>
+        <v>4.919094213397268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.057291666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>149397.715048828</v>
+        <v>187780.5046991613</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.3261019138406</v>
+        <v>145.5904623546658</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.7435751812416</v>
+        <v>199.2032935914517</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.1203287078484</v>
+        <v>180.1916108347186</v>
       </c>
       <c r="AD4" t="n">
-        <v>104326.1019138406</v>
+        <v>145590.4623546658</v>
       </c>
       <c r="AE4" t="n">
-        <v>142743.5751812416</v>
+        <v>199203.2935914517</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.09027493140722e-06</v>
+        <v>5.253262571160435e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.605902777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>129120.3287078484</v>
+        <v>180191.6108347186</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.6430156158072</v>
+        <v>134.7406324419265</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.8089463726322</v>
+        <v>184.3580776441357</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.2748995609727</v>
+        <v>166.7632014620183</v>
       </c>
       <c r="AD5" t="n">
-        <v>103643.0156158072</v>
+        <v>134740.6324419265</v>
       </c>
       <c r="AE5" t="n">
-        <v>141808.9463726322</v>
+        <v>184358.0776441357</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.111732559752965e-06</v>
+        <v>5.289739117214297e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH5" t="n">
-        <v>128274.8995609727</v>
+        <v>166763.2014620182</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.0098220054314</v>
+        <v>135.3570665954753</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.7331182390716</v>
+        <v>185.2015100481761</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.0652557264715</v>
+        <v>167.5261378611821</v>
       </c>
       <c r="AD2" t="n">
-        <v>97009.8220054314</v>
+        <v>135357.0665954752</v>
       </c>
       <c r="AE2" t="n">
-        <v>132733.1182390716</v>
+        <v>185201.5100481761</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.204430612180089e-06</v>
+        <v>5.778346690036407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>120065.2557264715</v>
+        <v>167526.1378611821</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.78538634874542</v>
+        <v>120.5245740861864</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.5848148877632</v>
+        <v>164.9070394335905</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.5991764143029</v>
+        <v>149.1685430385777</v>
       </c>
       <c r="AD3" t="n">
-        <v>91785.38634874542</v>
+        <v>120524.5740861864</v>
       </c>
       <c r="AE3" t="n">
-        <v>125584.8148877632</v>
+        <v>164907.0394335905</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.453827008600358e-06</v>
+        <v>6.228067409931053e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.397569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>113599.1764143029</v>
+        <v>149168.5430385777</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.20200086106962</v>
+        <v>114.8719110134774</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.3136246588315</v>
+        <v>157.1728164396193</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.9264997791476</v>
+        <v>142.1724634320986</v>
       </c>
       <c r="AD2" t="n">
-        <v>87202.00086106962</v>
+        <v>114871.9110134774</v>
       </c>
       <c r="AE2" t="n">
-        <v>119313.6246588315</v>
+        <v>157172.8164396193</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.573243510954458e-06</v>
+        <v>6.66653023010203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.440972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>107926.4997791476</v>
+        <v>142172.4634320986</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.30918618115605</v>
+        <v>114.9790963335638</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.4602803424563</v>
+        <v>157.3194721232441</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.0591588501598</v>
+        <v>142.3051225031108</v>
       </c>
       <c r="AD3" t="n">
-        <v>87309.18618115605</v>
+        <v>114979.0963335639</v>
       </c>
       <c r="AE3" t="n">
-        <v>119460.2803424563</v>
+        <v>157319.4721232441</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.572156419373873e-06</v>
+        <v>6.664502064693589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.440972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>108059.1588501598</v>
+        <v>142305.1225031108</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.50548095974438</v>
+        <v>110.4912897537938</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.2558830508923</v>
+        <v>151.1790571727527</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.3514619316836</v>
+        <v>136.7507401373658</v>
       </c>
       <c r="AD2" t="n">
-        <v>83505.48095974438</v>
+        <v>110491.2897537938</v>
       </c>
       <c r="AE2" t="n">
-        <v>114255.8830508923</v>
+        <v>151179.0571727527</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.651374049036879e-06</v>
+        <v>7.021727702420924e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.519097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>103351.4619316836</v>
+        <v>136750.7401373658</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.94309909936329</v>
+        <v>111.1493888582219</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.5911397296397</v>
+        <v>152.0794974007143</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.3684063940746</v>
+        <v>137.5652436137468</v>
       </c>
       <c r="AD2" t="n">
-        <v>85943.09909936329</v>
+        <v>111149.3888582219</v>
       </c>
       <c r="AE2" t="n">
-        <v>117591.1397296397</v>
+        <v>152079.4974007143</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.551939324894084e-06</v>
+        <v>7.326227641048174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.196180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>106368.4063940746</v>
+        <v>137565.2436137468</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.1631074240559</v>
+        <v>156.6334191042127</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.3077324490231</v>
+        <v>214.3127541970426</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.008187457448</v>
+        <v>193.8590457263778</v>
       </c>
       <c r="AD2" t="n">
-        <v>117163.1074240559</v>
+        <v>156633.4191042127</v>
       </c>
       <c r="AE2" t="n">
-        <v>160307.7324490231</v>
+        <v>214312.7541970426</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.870101390774381e-06</v>
+        <v>5.04265492447461e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>145008.187457448</v>
+        <v>193859.0457263778</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.90342134024215</v>
+        <v>126.5488479047834</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.5875361548937</v>
+        <v>173.1497166443942</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.9335677920817</v>
+        <v>156.6245507050551</v>
       </c>
       <c r="AD3" t="n">
-        <v>96903.42134024214</v>
+        <v>126548.8479047834</v>
       </c>
       <c r="AE3" t="n">
-        <v>132587.5361548937</v>
+        <v>173149.7166443942</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.293772473583065e-06</v>
+        <v>5.787028304087609e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>119933.5677920817</v>
+        <v>156624.5507050551</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.64403250238796</v>
+        <v>126.2894590669292</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.232628903514</v>
+        <v>172.7948093930145</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.612532390658</v>
+        <v>156.3035153036314</v>
       </c>
       <c r="AD4" t="n">
-        <v>96644.03250238796</v>
+        <v>126289.4590669292</v>
       </c>
       <c r="AE4" t="n">
-        <v>132232.6289035139</v>
+        <v>172794.8093930145</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.312606129132408e-06</v>
+        <v>5.820118293941986e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.449652777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>119612.532390658</v>
+        <v>156303.5153036314</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.3030156989537</v>
+        <v>184.2493914425948</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.0735081620838</v>
+        <v>252.098145881112</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.3605277340471</v>
+        <v>228.038252660262</v>
       </c>
       <c r="AD2" t="n">
-        <v>143303.0156989537</v>
+        <v>184249.3914425948</v>
       </c>
       <c r="AE2" t="n">
-        <v>196073.5081620837</v>
+        <v>252098.145881112</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.469292104769977e-06</v>
+        <v>4.222214315329263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.342013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>177360.5277340471</v>
+        <v>228038.252660262</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.3653515020215</v>
+        <v>148.3116377371116</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.9020105500174</v>
+        <v>202.9265257994973</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.8818888414303</v>
+        <v>183.5595029864187</v>
       </c>
       <c r="AD3" t="n">
-        <v>107365.3515020215</v>
+        <v>148311.6377371116</v>
       </c>
       <c r="AE3" t="n">
-        <v>146902.0105500174</v>
+        <v>202926.5257994973</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.975605522649604e-06</v>
+        <v>5.087953835123251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.918402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>132881.8888414303</v>
+        <v>183559.5029864187</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.4509310208329</v>
+        <v>133.3099921926508</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.1778836387285</v>
+        <v>182.4006125396843</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.7995031651813</v>
+        <v>164.9925540798155</v>
       </c>
       <c r="AD4" t="n">
-        <v>102450.9310208329</v>
+        <v>133309.9921926508</v>
       </c>
       <c r="AE4" t="n">
-        <v>140177.8836387285</v>
+        <v>182400.6125396843</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.141648424521007e-06</v>
+        <v>5.371868693104606e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.553819444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>126799.5031651813</v>
+        <v>164992.5540798155</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.3399763130656</v>
+        <v>133.1990374848836</v>
       </c>
       <c r="AB5" t="n">
-        <v>140.0260705125852</v>
+        <v>182.248799413541</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.662178870726</v>
+        <v>164.8552297853602</v>
       </c>
       <c r="AD5" t="n">
-        <v>102339.9763130656</v>
+        <v>133199.0374848836</v>
       </c>
       <c r="AE5" t="n">
-        <v>140026.0705125852</v>
+        <v>182248.799413541</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.141648424521007e-06</v>
+        <v>5.371868693104606e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.553819444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>126662.178870726</v>
+        <v>164855.2297853602</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.7711914322429</v>
+        <v>124.2376539532109</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.5653927767689</v>
+        <v>169.9874391171735</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.5816079223228</v>
+        <v>153.7640765067469</v>
       </c>
       <c r="AD2" t="n">
-        <v>91771.19143224291</v>
+        <v>124237.6539532109</v>
       </c>
       <c r="AE2" t="n">
-        <v>125565.3927767689</v>
+        <v>169987.4391171735</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.268065804218516e-06</v>
+        <v>7.004970258376993e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.098958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>113581.6079223228</v>
+        <v>153764.0765067469</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.92105381139129</v>
+        <v>118.1411265912007</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.0339528616098</v>
+        <v>161.6459014206703</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.2917650797674</v>
+        <v>146.2186434605737</v>
       </c>
       <c r="AD2" t="n">
-        <v>89921.05381139129</v>
+        <v>118141.1265912007</v>
       </c>
       <c r="AE2" t="n">
-        <v>123033.9528616098</v>
+        <v>161645.9014206703</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.468956879859028e-06</v>
+        <v>6.391319018325224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>111291.7650797674</v>
+        <v>146218.6434605737</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.77284974411765</v>
+        <v>116.8223303233349</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.4629294015784</v>
+        <v>159.8414661857921</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.8706778938156</v>
+        <v>144.5864209919709</v>
       </c>
       <c r="AD3" t="n">
-        <v>88772.84974411764</v>
+        <v>116822.3303233349</v>
       </c>
       <c r="AE3" t="n">
-        <v>121462.9294015784</v>
+        <v>159841.4661857921</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.543317051587749e-06</v>
+        <v>6.528322618034143e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.397569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>109870.6778938156</v>
+        <v>144586.4209919709</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.4961158755316</v>
+        <v>139.6374981067894</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.185660485428</v>
+        <v>191.0581852812639</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.7567132391472</v>
+        <v>172.8238602299212</v>
       </c>
       <c r="AD2" t="n">
-        <v>110496.1158755316</v>
+        <v>139637.4981067894</v>
       </c>
       <c r="AE2" t="n">
-        <v>151185.660485428</v>
+        <v>191058.1852812639</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.06974083043636e-06</v>
+        <v>5.483867969166943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.109374999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>136756.7132391472</v>
+        <v>172823.8602299212</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.37592811774974</v>
+        <v>122.4319694944359</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.7610643058643</v>
+        <v>167.5168219795026</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.5677276423264</v>
+        <v>151.5292516011616</v>
       </c>
       <c r="AD3" t="n">
-        <v>93375.92811774973</v>
+        <v>122431.9694944359</v>
       </c>
       <c r="AE3" t="n">
-        <v>127761.0643058643</v>
+        <v>167516.8219795026</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.418020448541674e-06</v>
+        <v>6.106044090064398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>115567.7276423264</v>
+        <v>151529.2516011616</v>
       </c>
     </row>
   </sheetData>
